--- a/Project Outputs for Relia ver2/Relia ver2.xlsx
+++ b/Project Outputs for Relia ver2/Relia ver2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nauras Final year project\Final year project\Relia ver2\Project Outputs for Relia ver2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80FF9950-0FC2-4BD4-80C5-A846E953AC65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7234673B-AE69-452B-86B1-454DC89E4A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{4D5AF137-52F8-457D-BB08-EAE48197BA88}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{7E382B59-441D-4E19-89C3-13464CA9780D}"/>
   </bookViews>
   <sheets>
     <sheet name="Relia ver2" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="316">
   <si>
     <t>Line #</t>
   </si>
@@ -213,10 +213,10 @@
     <t>Not Recommended for New Design</t>
   </si>
   <si>
-    <t>490-3261-6-ND</t>
-  </si>
-  <si>
-    <t>4.7uF</t>
+    <t>490-3261-1-ND</t>
+  </si>
+  <si>
+    <t>MSASU32MSB7475MPNA01</t>
   </si>
   <si>
     <t>C41, C42</t>
@@ -294,7 +294,7 @@
     <t>81-GRM155Z71A225KE4J</t>
   </si>
   <si>
-    <t>10uF</t>
+    <t>GRM155R60J106ME15D</t>
   </si>
   <si>
     <t>10 ÂµF Â±20% 6.3V Ceramic Capacitor X5R 0402 (1005 Metric)</t>
@@ -387,19 +387,19 @@
     <t>160-1423-1-ND</t>
   </si>
   <si>
-    <t>SZESD8472MUT5G</t>
-  </si>
-  <si>
-    <t>TVS DIODE 5.3V 14V 2X3DFN</t>
+    <t>TPD1E05U06QDPYRQ1</t>
+  </si>
+  <si>
+    <t>TVS DIODE 5.5V 14V 2X1SON</t>
   </si>
   <si>
     <t>D7</t>
   </si>
   <si>
-    <t>CMP-07200-000010-1</t>
-  </si>
-  <si>
-    <t>488-SZESD8472MUT5GCT-ND</t>
+    <t>CMP-04989-000010-1</t>
+  </si>
+  <si>
+    <t>Texas Instruments</t>
   </si>
   <si>
     <t>PESD5V0S4UD</t>
@@ -411,6 +411,15 @@
     <t>D8</t>
   </si>
   <si>
+    <t>Nexperia USA Inc.</t>
+  </si>
+  <si>
+    <t>PESD5V0S4UD-QX</t>
+  </si>
+  <si>
+    <t>Manual Solution</t>
+  </si>
+  <si>
     <t>MBRS360BT3G</t>
   </si>
   <si>
@@ -474,16 +483,13 @@
     <t>490-BLM15PE601SH1DCT-ND</t>
   </si>
   <si>
-    <t>Ferrite bead</t>
-  </si>
-  <si>
-    <t>FL1</t>
-  </si>
-  <si>
-    <t>Ferrite Bead</t>
-  </si>
-  <si>
-    <t>FL2</t>
+    <t>BLM15AG102SN1D</t>
+  </si>
+  <si>
+    <t>BLM15AG102SN1D, [NoValue]</t>
+  </si>
+  <si>
+    <t>FL1, FL2</t>
   </si>
   <si>
     <t>KNH16C104DA5TS</t>
@@ -492,6 +498,12 @@
     <t>FL3</t>
   </si>
   <si>
+    <t>KYOCERA AVX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">478-KNH16C104DA5TSTR-ND </t>
+  </si>
+  <si>
     <t>USB4105-GF-A</t>
   </si>
   <si>
@@ -540,6 +552,9 @@
     <t>J3</t>
   </si>
   <si>
+    <t>Hirose Electric Co Ltd</t>
+  </si>
+  <si>
     <t>SM03B-GHS-TB(LF)(SN)</t>
   </si>
   <si>
@@ -612,10 +627,10 @@
     <t>TDK</t>
   </si>
   <si>
-    <t>810-ACT45B5102PTL003</t>
-  </si>
-  <si>
-    <t>3.3uH</t>
+    <t>445-3958-1-ND</t>
+  </si>
+  <si>
+    <t>IND_XAL4030-332MEB</t>
   </si>
   <si>
     <t>L2</t>
@@ -636,7 +651,7 @@
     <t>Stackpole Electronics</t>
   </si>
   <si>
-    <t>738-RMCF0402FT22R0CT-ND</t>
+    <t>708-RMCF0402FT22R0</t>
   </si>
   <si>
     <t>MCS0402MD1002DE000</t>
@@ -690,7 +705,10 @@
     <t>CMP-2002-07370-1</t>
   </si>
   <si>
-    <t>311-120LRCT-ND</t>
+    <t>Farnell</t>
+  </si>
+  <si>
+    <t>9239120</t>
   </si>
   <si>
     <t>CRCW04024K70FHEDP</t>
@@ -831,6 +849,9 @@
     <t>S1, S2</t>
   </si>
   <si>
+    <t>E-Switch</t>
+  </si>
+  <si>
     <t>USBLC6-2SC6</t>
   </si>
   <si>
@@ -855,9 +876,6 @@
     <t>NXP Semiconductors</t>
   </si>
   <si>
-    <t>771-TJA1051T3118</t>
-  </si>
-  <si>
     <t>STM32H743VIT6</t>
   </si>
   <si>
@@ -912,21 +930,12 @@
     <t>TPS2121RUXR</t>
   </si>
   <si>
-    <t>PWR MGMT BATTERY MGMT</t>
+    <t>2.7-V&amp;nbsp;to 22-V, 56-mâ„|, 4.5-A, power mux with seamless switchover</t>
   </si>
   <si>
     <t>U8</t>
   </si>
   <si>
-    <t>CMP-04910-000009-1</t>
-  </si>
-  <si>
-    <t>Texas Instruments</t>
-  </si>
-  <si>
-    <t>296-53410-1-ND</t>
-  </si>
-  <si>
     <t>MIC5332-SSYMT-TR</t>
   </si>
   <si>
@@ -942,7 +951,7 @@
     <t>Microchip</t>
   </si>
   <si>
-    <t>25mhz</t>
+    <t>ABM8N-25.0000MHZ-12-B1U-T3</t>
   </si>
   <si>
     <t>25 MHz Â±30ppm Crystal 12pF 50 Ohms 4-SMD, No Lead</t>
@@ -952,9 +961,6 @@
   </si>
   <si>
     <t>Abracon</t>
-  </si>
-  <si>
-    <t>ABM8N-25.0000MHZ-12-B1U-T3</t>
   </si>
   <si>
     <t>535-ABM8N-25.0000MHZ-12-B1U-T3CT-ND</t>
@@ -1345,18 +1351,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9947B932-B075-44B0-9498-22C52B375781}">
-  <dimension ref="A1:O66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AAB8F03-675C-49E7-B337-6CC6A0BC160F}">
+  <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="68" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
     <col min="6" max="6" width="16.44140625" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
     <col min="8" max="8" width="10.77734375" customWidth="1"/>
     <col min="9" max="9" width="15.77734375" customWidth="1"/>
     <col min="10" max="10" width="26" customWidth="1"/>
@@ -1482,10 +1490,10 @@
         <v>29</v>
       </c>
       <c r="N3" s="1">
-        <v>5.6000000000000001E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="O3" s="1">
-        <v>0.56000000000000005</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -1709,14 +1717,16 @@
         <v>51</v>
       </c>
       <c r="N8" s="1">
-        <v>9.6500000000000002E-2</v>
+        <v>7.4300000000000005E-2</v>
       </c>
       <c r="O8" s="1">
-        <v>0.193</v>
+        <v>0.14860000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
+      <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="B9" s="2" t="s">
         <v>56</v>
       </c>
@@ -1768,7 +1778,7 @@
         <v>62</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>63</v>
@@ -1790,7 +1800,9 @@
       <c r="O10" s="1"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="B11" s="2" t="s">
         <v>64</v>
       </c>
@@ -1835,7 +1847,9 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
+      <c r="A12" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="B12" s="2" t="s">
         <v>70</v>
       </c>
@@ -1878,7 +1892,9 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
+      <c r="A13" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="B13" s="2" t="s">
         <v>75</v>
       </c>
@@ -1923,7 +1939,9 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="B14" s="2" t="s">
         <v>80</v>
       </c>
@@ -2013,7 +2031,9 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
+      <c r="A16" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="B16" s="2" t="s">
         <v>88</v>
       </c>
@@ -2087,7 +2107,9 @@
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
+      <c r="A18" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="B18" s="2" t="s">
         <v>96</v>
       </c>
@@ -2171,7 +2193,9 @@
       <c r="O19" s="1"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="B20" s="2" t="s">
         <v>108</v>
       </c>
@@ -2209,14 +2233,16 @@
         <v>108</v>
       </c>
       <c r="N20" s="1">
-        <v>0.90400000000000003</v>
+        <v>0.82</v>
       </c>
       <c r="O20" s="1">
-        <v>0.90400000000000003</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
+      <c r="A21" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="B21" s="2" t="s">
         <v>113</v>
       </c>
@@ -2261,7 +2287,9 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
+      <c r="A22" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="B22" s="2" t="s">
         <v>119</v>
       </c>
@@ -2284,7 +2312,7 @@
         <v>1</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>119</v>
@@ -2292,21 +2320,15 @@
       <c r="K22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L22" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="N22" s="1">
-        <v>0.39</v>
-      </c>
-      <c r="O22" s="1">
-        <v>0.39</v>
-      </c>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
+      <c r="A23" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="B23" s="2" t="s">
         <v>124</v>
       </c>
@@ -2324,27 +2346,35 @@
       <c r="H23" s="1">
         <v>1</v>
       </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
+      <c r="I23" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
+      <c r="A24" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="B24" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>73</v>
@@ -2359,7 +2389,7 @@
         <v>106</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>27</v>
@@ -2368,7 +2398,7 @@
         <v>28</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="N24" s="1">
         <v>0.28000000000000003</v>
@@ -2378,18 +2408,20 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
+      <c r="A25" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="B25" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>24</v>
@@ -2401,19 +2433,19 @@
         <v>1</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>27</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="N25" s="1">
         <v>0.15</v>
@@ -2423,18 +2455,20 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
+      <c r="A26" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="B26" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>24</v>
@@ -2446,19 +2480,19 @@
         <v>1</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>27</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="N26" s="1">
         <v>0.14000000000000001</v>
@@ -2468,18 +2502,20 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
+      <c r="A27" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="B27" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>24</v>
@@ -2494,7 +2530,7 @@
         <v>26</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>27</v>
@@ -2503,7 +2539,7 @@
         <v>40</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="N27" s="1">
         <v>0.15</v>
@@ -2513,15 +2549,17 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
+      <c r="A28" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="B28" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>19</v>
+        <v>152</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="2" t="s">
@@ -2529,7 +2567,7 @@
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -2540,15 +2578,17 @@
       <c r="O28" s="1"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
+      <c r="A29" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="B29" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="2" t="s">
@@ -2558,54 +2598,82 @@
       <c r="H29" s="1">
         <v>1</v>
       </c>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
+      <c r="I29" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
+      <c r="A30" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="B30" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E30" s="1"/>
+        <v>160</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="F30" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="H30" s="1">
         <v>1</v>
       </c>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
+      <c r="I30" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="O30" s="1">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
+      <c r="A31" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="B31" s="2" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>24</v>
@@ -2617,114 +2685,124 @@
         <v>1</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>27</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>28</v>
+        <v>169</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="N31" s="1">
-        <v>0.78</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="O31" s="1">
-        <v>0.78</v>
+        <v>637.5</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
+      <c r="A32" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="B32" s="2" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>163</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="E32" s="1"/>
       <c r="F32" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G32" s="1"/>
       <c r="H32" s="1">
         <v>1</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="N32" s="1">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="O32" s="1">
-        <v>637.5</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
+      <c r="A33" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="B33" s="2" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" s="1">
+        <v>2</v>
+      </c>
+      <c r="I33" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E33" s="1"/>
-      <c r="F33" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1">
-        <v>1</v>
-      </c>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
+      <c r="J33" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="N33" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="O33" s="1">
+        <v>0.72</v>
+      </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>24</v>
@@ -2736,42 +2814,34 @@
         <v>2</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L34" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="N34" s="1">
-        <v>0.36</v>
-      </c>
-      <c r="O34" s="1">
-        <v>0.72</v>
-      </c>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>24</v>
@@ -2780,35 +2850,45 @@
         <v>25</v>
       </c>
       <c r="H35" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
+      <c r="L35" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="N35" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="O35" s="1">
+        <v>0.87</v>
+      </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
+      <c r="A36" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="B36" s="2" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>24</v>
@@ -2820,10 +2900,10 @@
         <v>1</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>27</v>
@@ -2832,31 +2912,33 @@
         <v>28</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="N36" s="1">
-        <v>0.87</v>
+        <v>0.48</v>
       </c>
       <c r="O36" s="1">
-        <v>0.87</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
+      <c r="A37" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="B37" s="2" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>25</v>
@@ -2865,114 +2947,118 @@
         <v>1</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>27</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="N37" s="1">
-        <v>0.48</v>
+        <v>1.49</v>
       </c>
       <c r="O37" s="1">
-        <v>0.48</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
+      <c r="A38" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="B38" s="2" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>190</v>
+        <v>19</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>192</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="E38" s="1"/>
       <c r="F38" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G38" s="1"/>
       <c r="H38" s="1">
         <v>1</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L38" s="2" t="s">
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39" s="1">
+        <v>4</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L39" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="N38" s="1">
-        <v>1.49</v>
-      </c>
-      <c r="O38" s="1">
-        <v>1.49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E39" s="1"/>
-      <c r="F39" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1">
-        <v>1</v>
-      </c>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
+      <c r="M39" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="N39" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="O39" s="1">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>24</v>
@@ -2981,28 +3067,28 @@
         <v>25</v>
       </c>
       <c r="H40" s="1">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>201</v>
+        <v>100</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>27</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="N40" s="1">
-        <v>7.0000000000000001E-3</v>
+        <v>5.9200000000000003E-2</v>
       </c>
       <c r="O40" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
@@ -3010,16 +3096,16 @@
         <v>19</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>24</v>
@@ -3028,43 +3114,45 @@
         <v>25</v>
       </c>
       <c r="H41" s="1">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>100</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>27</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="N41" s="1">
-        <v>5.5199999999999999E-2</v>
+        <v>0.12</v>
       </c>
       <c r="O41" s="1">
-        <v>0.93840000000000001</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
+      <c r="A42" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="B42" s="2" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>24</v>
@@ -3073,127 +3161,121 @@
         <v>25</v>
       </c>
       <c r="H42" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>100</v>
+        <v>221</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L42" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="N42" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="O42" s="1">
-        <v>0.12</v>
-      </c>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>213</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="C43" s="1"/>
       <c r="D43" s="2" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="F43" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H43" s="1">
+        <v>1</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="N43" s="1">
+        <v>9.9900000000000006E-3</v>
+      </c>
+      <c r="O43" s="1">
+        <v>9.9900000000000003E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H43" s="1">
+      <c r="G44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H44" s="1">
         <v>2</v>
       </c>
-      <c r="I43" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
-      <c r="B44" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H44" s="1">
-        <v>1</v>
-      </c>
       <c r="I44" s="2" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="K44" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L44" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="M44" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="N44" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="O44" s="1">
-        <v>0.1</v>
-      </c>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>24</v>
@@ -3208,31 +3290,39 @@
         <v>100</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
+      <c r="L45" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="N45" s="1">
+        <v>2.7E-2</v>
+      </c>
+      <c r="O45" s="1">
+        <v>5.3999999999999999E-2</v>
+      </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>24</v>
@@ -3241,43 +3331,45 @@
         <v>25</v>
       </c>
       <c r="H46" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>100</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>27</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="N46" s="1">
-        <v>2.7E-2</v>
+        <v>0.18</v>
       </c>
       <c r="O46" s="1">
-        <v>5.3999999999999999E-2</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A47" s="1"/>
+      <c r="A47" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="B47" s="2" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>24</v>
@@ -3286,13 +3378,13 @@
         <v>25</v>
       </c>
       <c r="H47" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>100</v>
+        <v>206</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="K47" s="2" t="s">
         <v>27</v>
@@ -3301,13 +3393,13 @@
         <v>40</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="N47" s="1">
-        <v>0.18</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="O47" s="1">
-        <v>0.18</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
@@ -3315,62 +3407,64 @@
         <v>19</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>233</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="C48" s="1"/>
       <c r="D48" s="2" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="F48" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H48" s="1">
+        <v>1</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="N48" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="O48" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H48" s="1">
-        <v>4</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L48" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="M48" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="N48" s="1">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="O48" s="1">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A49" s="1"/>
-      <c r="B49" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>25</v>
@@ -3382,16 +3476,16 @@
         <v>100</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="K49" s="2" t="s">
         <v>27</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="N49" s="1">
         <v>0.1</v>
@@ -3401,48 +3495,50 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A50" s="1"/>
+      <c r="A50" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="B50" s="2" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>242</v>
+        <v>19</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H50" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>100</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>27</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="N50" s="1">
-        <v>0.1</v>
+        <v>0.19</v>
       </c>
       <c r="O50" s="1">
-        <v>0.1</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
@@ -3450,19 +3546,19 @@
         <v>19</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>19</v>
+        <v>257</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>25</v>
@@ -3471,42 +3567,34 @@
         <v>2</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="K51" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L51" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M51" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="N51" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="O51" s="1">
-        <v>0.38</v>
-      </c>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>24</v>
@@ -3518,34 +3606,42 @@
         <v>2</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>254</v>
+        <v>100</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
+      <c r="L52" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="N52" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="O52" s="1">
+        <v>1.64</v>
+      </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>24</v>
@@ -3554,61 +3650,51 @@
         <v>25</v>
       </c>
       <c r="H53" s="1">
+        <v>1</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1">
         <v>2</v>
       </c>
-      <c r="I53" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L53" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="M53" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="N53" s="1">
-        <v>0.82</v>
-      </c>
-      <c r="O53" s="1">
-        <v>1.64</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A54" s="1"/>
-      <c r="B54" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H54" s="1">
-        <v>1</v>
-      </c>
       <c r="I54" s="2" t="s">
-        <v>216</v>
+        <v>273</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
@@ -3620,13 +3706,13 @@
         <v>19</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="2" t="s">
@@ -3634,7 +3720,7 @@
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
@@ -3645,48 +3731,70 @@
       <c r="O55" s="1"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A56" s="1"/>
+      <c r="A56" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="B56" s="2" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="E56" s="1"/>
+        <v>279</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>280</v>
+      </c>
       <c r="F56" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" s="1"/>
+        <v>73</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="H56" s="1">
         <v>1</v>
       </c>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
+      <c r="I56" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="N56" s="1">
+        <v>1.23</v>
+      </c>
+      <c r="O56" s="1">
+        <v>1.23</v>
+      </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A57" s="1"/>
+      <c r="A57" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="B57" s="2" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>25</v>
@@ -3695,82 +3803,68 @@
         <v>1</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="N57" s="1">
-        <v>1.21</v>
+        <v>7.66</v>
       </c>
       <c r="O57" s="1">
-        <v>1.21</v>
+        <v>7.66</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A58" s="1"/>
+      <c r="A58" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="B58" s="2" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>279</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="E58" s="1"/>
       <c r="F58" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G58" s="1"/>
       <c r="H58" s="1">
         <v>1</v>
       </c>
-      <c r="I58" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L58" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M58" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="N58" s="1">
-        <v>8.07</v>
-      </c>
-      <c r="O58" s="1">
-        <v>8.07</v>
-      </c>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A59" s="1"/>
+      <c r="A59" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="B59" s="2" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="2" t="s">
@@ -3789,15 +3883,17 @@
       <c r="O59" s="1"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A60" s="1"/>
+      <c r="A60" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="B60" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="2" t="s">
@@ -3816,15 +3912,17 @@
       <c r="O60" s="1"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A61" s="1"/>
+      <c r="A61" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="B61" s="2" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="2" t="s">
@@ -3845,13 +3943,13 @@
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="2" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="2" t="s">
@@ -3870,18 +3968,20 @@
       <c r="O62" s="1"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A63" s="1"/>
+      <c r="A63" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="B63" s="2" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>24</v>
@@ -3893,155 +3993,114 @@
         <v>1</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="K63" s="2" t="s">
         <v>27</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="N63" s="1">
-        <v>2.37</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="O63" s="1">
-        <v>2.37</v>
+        <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A64" s="1"/>
+      <c r="A64" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="B64" s="2" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>302</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="E64" s="1"/>
       <c r="F64" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G64" s="1"/>
       <c r="H64" s="1">
         <v>1</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="K64" s="2" t="s">
         <v>27</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="N64" s="1">
-        <v>1.1499999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="O64" s="1">
-        <v>1.1499999999999999</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A65" s="1"/>
+      <c r="A65" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="B65" s="2" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="E65" s="1"/>
+        <v>314</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>315</v>
+      </c>
       <c r="F65" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G65" s="1"/>
+        <v>73</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="H65" s="1">
         <v>1</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="N65" s="1">
-        <v>0.61</v>
+        <v>0.22</v>
       </c>
       <c r="O65" s="1">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A66" s="1"/>
-      <c r="B66" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H66" s="1">
-        <v>1</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="J66" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="K66" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L66" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="M66" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="N66" s="1">
-        <v>0.22</v>
-      </c>
-      <c r="O66" s="1">
         <v>0.22</v>
       </c>
     </row>
